--- a/data/outputs/OR_altmetric/41.xlsx
+++ b/data/outputs/OR_altmetric/41.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CE60"/>
+  <dimension ref="A1:CF60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -782,6 +782,11 @@
           <t>citeulike</t>
         </is>
       </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>altmetric_score</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1039,6 +1044,9 @@
       <c r="CE2" t="n">
         <v>0</v>
       </c>
+      <c r="CF2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1288,6 +1296,9 @@
       <c r="CE3" t="n">
         <v>0</v>
       </c>
+      <c r="CF3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1575,6 +1586,9 @@
       <c r="CE4" t="n">
         <v>0</v>
       </c>
+      <c r="CF4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1858,6 +1872,9 @@
       <c r="CE5" t="n">
         <v>0</v>
       </c>
+      <c r="CF5" t="n">
+        <v>1.85</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2129,6 +2146,9 @@
         <v>0</v>
       </c>
       <c r="CE6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2392,6 +2412,9 @@
       <c r="CE7" t="n">
         <v>0</v>
       </c>
+      <c r="CF7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2663,6 +2686,9 @@
         <v>0</v>
       </c>
       <c r="CE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2906,6 +2932,9 @@
       <c r="CE9" t="n">
         <v>0</v>
       </c>
+      <c r="CF9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3176,6 +3205,9 @@
       </c>
       <c r="CE10" t="n">
         <v>0</v>
+      </c>
+      <c r="CF10" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -3438,6 +3470,9 @@
       <c r="CE11" t="n">
         <v>0</v>
       </c>
+      <c r="CF11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3691,6 +3726,9 @@
       <c r="CE12" t="n">
         <v>0</v>
       </c>
+      <c r="CF12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3942,6 +3980,9 @@
       <c r="CE13" t="n">
         <v>0</v>
       </c>
+      <c r="CF13" t="n">
+        <v>1.6</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -4195,6 +4236,9 @@
       <c r="CE14" t="n">
         <v>0</v>
       </c>
+      <c r="CF14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4452,6 +4496,9 @@
       <c r="CE15" t="n">
         <v>0</v>
       </c>
+      <c r="CF15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4707,6 +4754,9 @@
         <v>0</v>
       </c>
       <c r="CE16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4950,6 +5000,9 @@
       <c r="CE17" t="n">
         <v>0</v>
       </c>
+      <c r="CF17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -5201,6 +5254,9 @@
       <c r="CE18" t="n">
         <v>0</v>
       </c>
+      <c r="CF18" t="n">
+        <v>2.2</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -5450,6 +5506,9 @@
       <c r="CE19" t="n">
         <v>0</v>
       </c>
+      <c r="CF19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -5721,6 +5780,9 @@
         <v>0</v>
       </c>
       <c r="CE20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5972,6 +6034,9 @@
       <c r="CE21" t="n">
         <v>0</v>
       </c>
+      <c r="CF21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -6221,6 +6286,9 @@
       <c r="CE22" t="n">
         <v>0</v>
       </c>
+      <c r="CF22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -6504,6 +6572,9 @@
         <v>0</v>
       </c>
       <c r="CE23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6747,6 +6818,9 @@
       <c r="CE24" t="n">
         <v>0</v>
       </c>
+      <c r="CF24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -6996,6 +7070,9 @@
       <c r="CE25" t="n">
         <v>0</v>
       </c>
+      <c r="CF25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -7253,6 +7330,9 @@
       <c r="CE26" t="n">
         <v>0</v>
       </c>
+      <c r="CF26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -7506,6 +7586,9 @@
       <c r="CE27" t="n">
         <v>0</v>
       </c>
+      <c r="CF27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -7759,6 +7842,9 @@
       <c r="CE28" t="n">
         <v>0</v>
       </c>
+      <c r="CF28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -8006,6 +8092,9 @@
         <v>0</v>
       </c>
       <c r="CE29" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8247,6 +8336,9 @@
         <v>0</v>
       </c>
       <c r="CE30" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8486,6 +8578,9 @@
       <c r="CE31" t="n">
         <v>0</v>
       </c>
+      <c r="CF31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -8727,6 +8822,9 @@
       <c r="CE32" t="n">
         <v>0</v>
       </c>
+      <c r="CF32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -8997,6 +9095,9 @@
       </c>
       <c r="CE33" t="n">
         <v>0</v>
+      </c>
+      <c r="CF33" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="34">
@@ -9255,6 +9356,9 @@
       <c r="CE34" t="n">
         <v>0</v>
       </c>
+      <c r="CF34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -9508,6 +9612,9 @@
       <c r="CE35" t="n">
         <v>0</v>
       </c>
+      <c r="CF35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -9765,6 +9872,9 @@
       <c r="CE36" t="n">
         <v>0</v>
       </c>
+      <c r="CF36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -10028,6 +10138,9 @@
       <c r="CE37" t="n">
         <v>0</v>
       </c>
+      <c r="CF37" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -10283,6 +10396,9 @@
       <c r="CE38" t="n">
         <v>0</v>
       </c>
+      <c r="CF38" t="n">
+        <v>1.25</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -10528,6 +10644,9 @@
       <c r="CE39" t="n">
         <v>0</v>
       </c>
+      <c r="CF39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -10785,6 +10904,9 @@
       <c r="CE40" t="n">
         <v>0</v>
       </c>
+      <c r="CF40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -11034,6 +11156,9 @@
       <c r="CE41" t="n">
         <v>0</v>
       </c>
+      <c r="CF41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -11295,6 +11420,9 @@
       <c r="CE42" t="n">
         <v>0</v>
       </c>
+      <c r="CF42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -11558,6 +11686,9 @@
         <v>0</v>
       </c>
       <c r="CE43" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11809,6 +11940,9 @@
       <c r="CE44" t="n">
         <v>0</v>
       </c>
+      <c r="CF44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -12080,6 +12214,9 @@
         <v>0</v>
       </c>
       <c r="CE45" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12339,6 +12476,9 @@
       <c r="CE46" t="n">
         <v>0</v>
       </c>
+      <c r="CF46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -12598,6 +12738,9 @@
         <v>0</v>
       </c>
       <c r="CE47" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12817,6 +12960,9 @@
       <c r="CE48" t="n">
         <v>0</v>
       </c>
+      <c r="CF48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -13066,6 +13212,9 @@
       <c r="CE49" t="n">
         <v>0</v>
       </c>
+      <c r="CF49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -13313,6 +13462,9 @@
         <v>0</v>
       </c>
       <c r="CE50" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13532,6 +13684,9 @@
       <c r="CE51" t="n">
         <v>0</v>
       </c>
+      <c r="CF51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -13773,6 +13928,9 @@
       <c r="CE52" t="n">
         <v>0</v>
       </c>
+      <c r="CF52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -14022,6 +14180,9 @@
       <c r="CE53" t="n">
         <v>0</v>
       </c>
+      <c r="CF53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -14269,6 +14430,9 @@
         <v>0</v>
       </c>
       <c r="CE54" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF54" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14512,6 +14676,9 @@
       <c r="CE55" t="n">
         <v>0</v>
       </c>
+      <c r="CF55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -14783,6 +14950,9 @@
         <v>0</v>
       </c>
       <c r="CE56" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15014,6 +15184,9 @@
       <c r="CE57" t="n">
         <v>0</v>
       </c>
+      <c r="CF57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -15281,6 +15454,9 @@
         <v>0</v>
       </c>
       <c r="CE58" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF58" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15508,6 +15684,9 @@
       <c r="CE59" t="n">
         <v>0</v>
       </c>
+      <c r="CF59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -15757,6 +15936,9 @@
       <c r="CE60" t="n">
         <v>0</v>
       </c>
+      <c r="CF60" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
